--- a/biology/Médecine/Score_de_Jadad/Score_de_Jadad.xlsx
+++ b/biology/Médecine/Score_de_Jadad/Score_de_Jadad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le score de Jadad, parfois aussi appelé « score de qualité d'Oxford », est une procédure pour évaluer de manière indépendante la qualité méthodologique d'un essai clinique[1],[2]. C'est une des évaluations les plus répandues dans le monde. En 2008, son article de séminaire a été cité dans plus de 3 000 travaux scientifiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le score de Jadad, parfois aussi appelé « score de qualité d'Oxford », est une procédure pour évaluer de manière indépendante la qualité méthodologique d'un essai clinique,. C'est une des évaluations les plus répandues dans le monde. En 2008, son article de séminaire a été cité dans plus de 3 000 travaux scientifiques.
 Alejandro R. Jadad Bechara (en), un médecin colombien, lui a donné son nom. Il travaillait dans un centre anti-douleur.  Il est convaincu que les essais randomisés contrôlés sont très importants dans l'avancée des sciences médicales. Ce score va de 0 (très faible) à 5 (rigoureux).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Questionnaire de Jadad</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>On doit répondre par oui ou non à 3 questions[2]. Pour un oui, il y a un point et pour un non, aucun point. Il n'y a pas de valeurs intermédiaires. L'équipe de Jadad voulait que cette évaluation d'un article ne prenne pas plus de 10 minutes pour n'importe quel article.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On doit répondre par oui ou non à 3 questions. Pour un oui, il y a un point et pour un non, aucun point. Il n'y a pas de valeurs intermédiaires. L'équipe de Jadad voulait que cette évaluation d'un article ne prenne pas plus de 10 minutes pour n'importe quel article.
 Est-ce que cet article est décrit comme randomisé ?
 Est ce que cet article est décrit comme en double aveugle ? (On doit plutôt dire maintenant que le patient, le soignant et l'évaluateur sont en aveugle.)
 Existe-t-il une description des retraits d'études et des abandons ?
@@ -551,9 +565,11 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On critique le score de Jadad en disant qu'il est trop simpliste, qu'il donne trop d'importance à l'aveugle et qu'il est peu reproductible[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On critique le score de Jadad en disant qu'il est trop simpliste, qu'il donne trop d'importance à l'aveugle et qu'il est peu reproductible,.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Ne pas confondre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il ne faut pas confondre le score de Jadad qui se veut un score de qualité avec l' énoncé CONSORT[5] qui aide les auteurs, les éditeurs et les lecteurs à vérifier que les données d'un article sont présentées de manière exhaustive.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne faut pas confondre le score de Jadad qui se veut un score de qualité avec l' énoncé CONSORT qui aide les auteurs, les éditeurs et les lecteurs à vérifier que les données d'un article sont présentées de manière exhaustive.
 </t>
         </is>
       </c>
